--- a/Libro11.xlsx
+++ b/Libro11.xlsx
@@ -8,12 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="d:\jmbeteta\Desktop\excelC-\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{97CEA382-66E8-4E89-AD76-5167085CE335}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EF78DBAB-8941-4900-AE5B-B451B3F12506}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1515" yWindow="3435" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3555" yWindow="1080" windowWidth="21600" windowHeight="11385" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja3" sheetId="3" r:id="rId2"/>
+    <sheet name="Hoja2" sheetId="2" r:id="rId3"/>
+    <sheet name="Hoja4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="40">
   <si>
     <t>Ayuntamiento de Murcia</t>
   </si>
@@ -66,6 +69,12 @@
     <t>N1</t>
   </si>
   <si>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>C5</t>
+  </si>
+  <si>
     <t>Breitenberg Inc</t>
   </si>
   <si>
@@ -124,13 +133,28 @@
   </si>
   <si>
     <t>561-279-9364</t>
+  </si>
+  <si>
+    <t>Palau</t>
+  </si>
+  <si>
+    <t>Lebanon</t>
+  </si>
+  <si>
+    <t>Zambia</t>
+  </si>
+  <si>
+    <t>Sudan</t>
+  </si>
+  <si>
+    <t>Syrian Arab Republic</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -167,13 +191,43 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <strike/>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF008000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0000FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -195,29 +249,44 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="8">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -247,19 +316,50 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla1" displayName="Tabla1" ref="E8:I15" totalsRowCount="1">
   <autoFilter ref="E8:I14" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Nombre" totalsRowFunction="custom" totalsRowDxfId="3">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Nombre" totalsRowFunction="custom" totalsRowDxfId="7">
       <totalsRowFormula>COUNTA(E10:E14)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Apellidos" totalsRowFunction="custom" totalsRowDxfId="2" dataCellStyle="Hipervínculo" totalsRowCellStyle="Hipervínculo">
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Apellidos" totalsRowFunction="custom" totalsRowDxfId="6" dataCellStyle="Hipervínculo" totalsRowCellStyle="Hipervínculo">
       <totalsRowFormula>COUNTA(F10:F14)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Calle" totalsRowFunction="custom" totalsRowDxfId="1">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Calle" totalsRowFunction="custom" totalsRowDxfId="5">
       <totalsRowFormula>COUNTA(G10:G14)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Número" totalsRowFunction="custom" totalsRowDxfId="0">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Número" totalsRowFunction="custom" totalsRowDxfId="4">
       <totalsRowFormula>COUNTA(H10:H14)</totalsRowFormula>
     </tableColumn>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Piso"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{69892E33-73D1-47CD-B692-CB6D7EB3BDE6}" name="Tabla14" displayName="Tabla14" ref="C8:D15" totalsRowCount="1">
+  <autoFilter ref="C8:D14" xr:uid="{CDE4F134-5295-4A3D-997D-FB75A4BFCEB9}"/>
+  <tableColumns count="2">
+    <tableColumn id="3" xr3:uid="{C9C70DFB-FABD-414F-BDF9-9A7B53A69C47}" name="Calle" totalsRowFunction="custom" totalsRowDxfId="3">
+      <totalsRowFormula>COUNTA(C10:C14)</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{033665DE-A0D7-4590-8C80-F52B20A1B51C}" name="Número" totalsRowFunction="custom" totalsRowDxfId="2">
+      <totalsRowFormula>COUNTA(D10:D14)</totalsRowFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{97C8DFC0-9C16-4218-845A-58ACC5104165}" name="Tabla13" displayName="Tabla13" ref="D7:F14" totalsRowCount="1">
+  <autoFilter ref="D7:F13" xr:uid="{F3AC55DF-9003-4FA1-B16D-EAD84B0F19A1}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{392D39EE-F190-41F1-8805-50E510D10F71}" name="Nombre"/>
+    <tableColumn id="2" xr3:uid="{69583597-A78A-4FAE-B344-AA5042346D02}" name="Apellidos" totalsRowFunction="custom" totalsRowDxfId="1" dataCellStyle="Hipervínculo" totalsRowCellStyle="Hipervínculo">
+      <totalsRowFormula>COUNTA(E9:E13)</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{44D00199-21E6-4A9F-AFE7-313953E03BDE}" name="Calle" totalsRowFunction="custom" totalsRowDxfId="0">
+      <totalsRowFormula>COUNTA(F9:F13)</totalsRowFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -564,8 +664,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="D3:I15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -611,7 +711,7 @@
     </row>
     <row r="9" spans="4:9" x14ac:dyDescent="0.25">
       <c r="E9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>7</v>
@@ -627,92 +727,92 @@
       </c>
     </row>
     <row r="10" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="E10" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G10" s="9" t="s">
+      <c r="E10" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H10" s="4" t="s">
+      <c r="F10" s="7" t="s">
         <v>16</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>18</v>
       </c>
       <c r="I10" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="11" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="E11" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G11" s="9" t="s">
+      <c r="E11" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="H11" s="4" t="s">
+      <c r="F11" s="7" t="s">
         <v>20</v>
       </c>
+      <c r="G11" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="12" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="E12" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G12" s="9" t="s">
+      <c r="E12" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="H12" s="4" t="s">
+      <c r="F12" s="7" t="s">
         <v>24</v>
       </c>
+      <c r="G12" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="13" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="E13" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="G13" s="9" t="s">
+      <c r="E13" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H13" s="4" t="s">
+      <c r="F13" s="7" t="s">
         <v>28</v>
       </c>
+      <c r="G13" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="14" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="E14" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="G14" s="9" t="s">
+      <c r="E14" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="H14" s="4" t="s">
+      <c r="F14" s="7" t="s">
         <v>32</v>
       </c>
+      <c r="G14" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="15" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="E15" s="5">
+      <c r="E15" s="4">
         <f>COUNTA(E10:E14)</f>
         <v>5</v>
       </c>
-      <c r="F15" s="7">
+      <c r="F15" s="6">
         <f>COUNTA(F10:F14)</f>
         <v>5</v>
       </c>
-      <c r="G15" s="5">
+      <c r="G15" s="4">
         <f>COUNTA(G10:G14)</f>
         <v>5</v>
       </c>
-      <c r="H15" s="5">
+      <c r="H15" s="4">
         <f>COUNTA(H10:H14)</f>
         <v>5</v>
       </c>
@@ -730,4 +830,247 @@
     <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F520945C-8B1B-42E8-99AE-A795A4C48EF6}">
+  <dimension ref="C8:D15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="8" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C10" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C11" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C12" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C13" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C14" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C15" s="4">
+        <f>COUNTA(C10:C14)</f>
+        <v>5</v>
+      </c>
+      <c r="D15" s="4">
+        <f>COUNTA(D10:D14)</f>
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55796AC0-4FC4-4B9C-ADDC-0F305159B2C7}">
+  <dimension ref="D7:F14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F5" sqref="F5:F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="7" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="E10" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="E11" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="E12" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="E13" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="E14" s="6">
+        <f>COUNTA(E9:E13)</f>
+        <v>5</v>
+      </c>
+      <c r="F14" s="4">
+        <f>COUNTA(F9:F13)</f>
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E8" r:id="rId1" display="#c2@" xr:uid="{229C8376-46DD-42C3-9F00-8F7D25DC50C1}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC5CDCC4-B3A7-4015-BBBF-3F0F2BA0236C}">
+  <dimension ref="D6:D12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="19.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="6" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D7" s="10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D8" s="10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D9" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D10" s="10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D11" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D12" s="4">
+        <f>COUNTA(D7:D11)</f>
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>